--- a/ЕГЭ/Варианты/2023/Вариант 8/Задание 22/22.xlsx
+++ b/ЕГЭ/Варианты/2023/Вариант 8/Задание 22/22.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +101,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -117,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -229,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,17 +406,17 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -428,7 +428,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -438,10 +438,16 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <f>B2</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -451,10 +457,16 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <f>B3+D2</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -464,8 +476,15 @@
       <c r="C4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <f>B4+D3</f>
+        <v>17</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -475,8 +494,15 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <f>B5</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -486,8 +512,15 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <f>B6+D5</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -497,8 +530,15 @@
       <c r="C7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <f>B7+D5</f>
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -508,8 +548,15 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <f>B8</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -519,8 +566,15 @@
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f>B9+D4</f>
+        <v>23</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -530,8 +584,15 @@
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f>B10+D7</f>
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -541,8 +602,15 @@
       <c r="C11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <f>B11</f>
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -552,8 +620,15 @@
       <c r="C12" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <f>B12+D9</f>
+        <v>29</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -563,11 +638,22 @@
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <f>B13+D10</f>
+        <v>23</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
+      <c r="D14">
+        <f>MAX(D2:D13)</f>
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
